--- a/Document/枕返し_エネミー仕様書.xlsx
+++ b/Document/枕返し_エネミー仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED93071-EEB0-42A0-B487-B2FE2881844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AF3195-CC81-44EE-A34B-558EE2F7001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B2947319-BD6E-4251-98D6-BDF255DD22D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>エネミーA（寝ている人）</t>
     <rPh sb="6" eb="7">
@@ -56,13 +56,6 @@
     <t>枕</t>
     <rPh sb="0" eb="1">
       <t>マクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>灯</t>
-    <rPh sb="0" eb="1">
-      <t>アカリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -290,22 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※灯の範囲は正面に扇形</t>
-    <rPh sb="1" eb="2">
-      <t>アカリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オウギガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※unity側で枕の色調を
 変えられる様にする</t>
     <rPh sb="6" eb="7">
@@ -420,6 +397,103 @@
       <t>ズ</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤子</t>
+    <rPh sb="0" eb="2">
+      <t>アカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーA（寝ている人）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>危険範囲</t>
+    <rPh sb="0" eb="2">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーA（寝ている人）
+エネミーB（見回り）</t>
+    <rPh sb="6" eb="7">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Aは頭（枕）中心の円形
+　Bは正面に扇形</t>
+    <rPh sb="3" eb="4">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウギガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灯を危険範囲に変更</t>
+    <rPh sb="0" eb="1">
+      <t>アカリ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キケンハンイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーAに紐づく要素追加</t>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤子（紐づく要素のみ）追加</t>
+    <rPh sb="0" eb="2">
+      <t>アカゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -478,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -582,13 +656,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,9 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -643,23 +727,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +791,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -716,8 +812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5113020" y="464820"/>
-          <a:ext cx="2011680" cy="1127760"/>
+          <a:off x="5113020" y="457200"/>
+          <a:ext cx="2011680" cy="1135380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,13 +994,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -966,13 +1062,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1181,13 +1277,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>274428</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>187208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1225,13 +1321,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>195061</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>383427</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>11996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1565,11 +1661,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CBD5C4-7D68-4D36-A476-B9D9EF0E61F9}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1578,34 +1672,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>44846</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>44848</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
+        <v>44853</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C07015-AA1F-4A5D-85C0-DE2EAA3CF3CA}">
-  <dimension ref="A2:O23"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1628,196 +1740,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="20" t="s">
-        <v>13</v>
+      <c r="B4" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="54" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.45">
+      <c r="B14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="B19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="36" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="D21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="16" t="s">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="B23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E2:F2"/>
